--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7230" firstSheet="4" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,20 @@
     <sheet name="EXP_4" sheetId="10" r:id="rId7"/>
     <sheet name="EXP_5" sheetId="11" r:id="rId8"/>
     <sheet name="EXP_6" sheetId="12" r:id="rId9"/>
+    <sheet name="EXP_7" sheetId="13" r:id="rId10"/>
+    <sheet name="EXP_8" sheetId="15" r:id="rId11"/>
+    <sheet name="EXP_9" sheetId="16" r:id="rId12"/>
+    <sheet name="EXP_10" sheetId="18" r:id="rId13"/>
+    <sheet name="EXP_11" sheetId="19" r:id="rId14"/>
+    <sheet name="EXP_12" sheetId="20" r:id="rId15"/>
+    <sheet name="EXP_13" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="102">
   <si>
     <t>username</t>
   </si>
@@ -219,7 +226,116 @@
     <t>Ballpen</t>
   </si>
   <si>
-    <t>12745</t>
+    <t>12798031232</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Selling Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Price </t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t>Purchase Types</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>This is new item</t>
+  </si>
+  <si>
+    <t>6500,5638,6767,9867,2344,1234.09876,4562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Terms </t>
+  </si>
+  <si>
+    <t>Wrist Watch</t>
+  </si>
+  <si>
+    <t>Inout Service</t>
+  </si>
+  <si>
+    <t>Operation Expense</t>
+  </si>
+  <si>
+    <t>Non-Business Purpose</t>
+  </si>
+  <si>
+    <t>New Item Name</t>
+  </si>
+  <si>
+    <t>3434544545</t>
+  </si>
+  <si>
+    <t>DAG-Bags</t>
+  </si>
+  <si>
+    <t>1100,1200,1300,1400,1500,1600,1700,1800</t>
+  </si>
+  <si>
+    <t>Computer,Mobile,Mouse,Keyboard,Processor,Ram,charger,Light</t>
+  </si>
+  <si>
+    <t>Input Service,Input Good,Capital Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone </t>
+  </si>
+  <si>
+    <t>Acc No</t>
+  </si>
+  <si>
+    <t>GSTIN</t>
+  </si>
+  <si>
+    <t>IFSC</t>
+  </si>
+  <si>
+    <t>New Vendor Name</t>
+  </si>
+  <si>
+    <t>P.O.#</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>Tylor Swift</t>
+  </si>
+  <si>
+    <t>tylorswift@gmail.com</t>
+  </si>
+  <si>
+    <t>SBIN0054490</t>
+  </si>
+  <si>
+    <t>11223344523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17AAAGM0289C1ZK
+</t>
+  </si>
+  <si>
+    <t>Notepad, Water bottle, charger, chair, laptop</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
   </si>
 </sst>
 </file>
@@ -266,7 +382,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -274,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,6 +729,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
@@ -680,7 +1290,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1023,12 +1633,105 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7230" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,26 @@
     <sheet name="EXP_11" sheetId="19" r:id="rId14"/>
     <sheet name="EXP_12" sheetId="20" r:id="rId15"/>
     <sheet name="EXP_13" sheetId="21" r:id="rId16"/>
+    <sheet name="EXP_14" sheetId="22" r:id="rId17"/>
+    <sheet name="EXP_15" sheetId="23" r:id="rId18"/>
+    <sheet name="EXP_16" sheetId="24" r:id="rId19"/>
+    <sheet name="EXP_17" sheetId="25" r:id="rId20"/>
+    <sheet name="EXP_18" sheetId="26" r:id="rId21"/>
+    <sheet name="EXP_19" sheetId="27" r:id="rId22"/>
+    <sheet name="EXP_20" sheetId="28" r:id="rId23"/>
+    <sheet name="EXP_21" sheetId="29" r:id="rId24"/>
+    <sheet name="EXP_22" sheetId="30" r:id="rId25"/>
+    <sheet name="EXP_23" sheetId="31" r:id="rId26"/>
+    <sheet name="EXP_24" sheetId="32" r:id="rId27"/>
+    <sheet name="EXP_25" sheetId="33" r:id="rId28"/>
+    <sheet name="EXP_26" sheetId="34" r:id="rId29"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
   <si>
     <t>username</t>
   </si>
@@ -336,6 +349,91 @@
   </si>
   <si>
     <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Gstin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Daily,Weekly,Monthly,Quarterly,Bi-Annually,Annual</t>
+  </si>
+  <si>
+    <t>20-11-2017</t>
+  </si>
+  <si>
+    <t>Net 7,Net 15,Net 30,Net 45,Net 60,Net 90</t>
+  </si>
+  <si>
+    <t>Expense type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34AAAGM0289C1ZO
+</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>E:\sample.pdf</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>This Is sample note</t>
+  </si>
+  <si>
+    <t>Cash,Cheque,Bank Transfer,Credit Card,Debit Card,Online,Others</t>
+  </si>
+  <si>
+    <t>12AAAGM0289C1ZU</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Test Vendor Name08-11</t>
+  </si>
+  <si>
+    <t>Payment to /Vendor</t>
+  </si>
+  <si>
+    <t>Pament Method</t>
+  </si>
+  <si>
+    <t>Bill/Ref.Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Type </t>
   </si>
 </sst>
 </file>
@@ -382,7 +480,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -391,6 +489,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1163,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1222,6 +1321,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
@@ -1250,6 +1556,471 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
@@ -1289,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +2407,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" firstSheet="19" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6870" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="122">
   <si>
     <t>username</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Bill number</t>
-  </si>
-  <si>
     <t>Expense Type</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Marketing Expense</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Net 7</t>
   </si>
   <si>
-    <t>876</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
   </si>
   <si>
@@ -146,72 +137,27 @@
     <t>Payment method</t>
   </si>
   <si>
-    <t>Test Vendor Name4</t>
-  </si>
-  <si>
-    <t>04BBBGM0289C1ZS</t>
-  </si>
-  <si>
     <t>Net 30</t>
   </si>
   <si>
-    <t>Bill Number</t>
-  </si>
-  <si>
-    <t>Clothes,Electronics,Food,GPRS,Internet3G,Internet4G,Internet5G</t>
-  </si>
-  <si>
     <t>Item Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Price </t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
     <t>Purchase Type</t>
   </si>
   <si>
-    <t>Tax Crtedit</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>Input Service</t>
-  </si>
-  <si>
     <t>Business Purpose</t>
   </si>
   <si>
     <t>Tax Credit</t>
   </si>
   <si>
-    <t>8774</t>
-  </si>
-  <si>
     <t>Net 45</t>
   </si>
   <si>
     <t>Cheque</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Bill Namuber</t>
   </si>
   <si>
@@ -221,9 +167,6 @@
     <t xml:space="preserve">Payment Method </t>
   </si>
   <si>
-    <t>Purcahse Type</t>
-  </si>
-  <si>
     <t>4508</t>
   </si>
   <si>
@@ -239,9 +182,6 @@
     <t>Ballpen</t>
   </si>
   <si>
-    <t>12798031232</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -284,9 +224,6 @@
     <t>New Item Name</t>
   </si>
   <si>
-    <t>3434544545</t>
-  </si>
-  <si>
     <t>DAG-Bags</t>
   </si>
   <si>
@@ -332,108 +269,148 @@
     <t>Tylor Swift</t>
   </si>
   <si>
-    <t>tylorswift@gmail.com</t>
-  </si>
-  <si>
     <t>SBIN0054490</t>
   </si>
   <si>
     <t>11223344523</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Gstin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Daily,Weekly,Monthly,Quarterly,Bi-Annually,Annual</t>
+  </si>
+  <si>
+    <t>20-11-2017</t>
+  </si>
+  <si>
+    <t>Net 7,Net 15,Net 30,Net 45,Net 60,Net 90</t>
+  </si>
+  <si>
+    <t>Expense type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>E:\sample.pdf</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>This Is sample note</t>
+  </si>
+  <si>
+    <t>Cash,Cheque,Bank Transfer,Credit Card,Debit Card,Online,Others</t>
+  </si>
+  <si>
+    <t>12AAAGM0289C1ZU</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Test Vendor Name08-11</t>
+  </si>
+  <si>
+    <t>Payment to /Vendor</t>
+  </si>
+  <si>
+    <t>Pament Method</t>
+  </si>
+  <si>
+    <t>Bill/Ref.Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Type </t>
+  </si>
+  <si>
+    <t>Input Good</t>
+  </si>
+  <si>
+    <t>Restricted Product</t>
+  </si>
+  <si>
+    <t>12-12-2017</t>
+  </si>
+  <si>
+    <t>100145</t>
+  </si>
+  <si>
+    <t>Test Vendor Name</t>
+  </si>
+  <si>
+    <t>dummy@email.com</t>
+  </si>
+  <si>
+    <t>9087654321</t>
+  </si>
+  <si>
+    <t>000190600008442</t>
   </si>
   <si>
     <t xml:space="preserve">17AAAGM0289C1ZK
 </t>
   </si>
   <si>
-    <t>Notepad, Water bottle, charger, chair, laptop</t>
-  </si>
-  <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Gstin</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Daily,Weekly,Monthly,Quarterly,Bi-Annually,Annual</t>
-  </si>
-  <si>
-    <t>20-11-2017</t>
-  </si>
-  <si>
-    <t>Net 7,Net 15,Net 30,Net 45,Net 60,Net 90</t>
-  </si>
-  <si>
-    <t>Expense type</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34AAAGM0289C1ZO
+    <t>Payment Term</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04AAAGM0289C1ZR
 </t>
   </si>
   <si>
-    <t>FilePath</t>
-  </si>
-  <si>
-    <t>E:\sample.pdf</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount </t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>This Is sample note</t>
-  </si>
-  <si>
-    <t>Cash,Cheque,Bank Transfer,Credit Card,Debit Card,Online,Others</t>
-  </si>
-  <si>
-    <t>12AAAGM0289C1ZU</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>Test Vendor Name08-11</t>
-  </si>
-  <si>
-    <t>Payment to /Vendor</t>
-  </si>
-  <si>
-    <t>Pament Method</t>
-  </si>
-  <si>
-    <t>Bill/Ref.Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Type </t>
+    <t>Clothes,Electronics,Food,GPRS,Internet3G,Internet4G,Internet5G,Contruction Work</t>
+  </si>
+  <si>
+    <t>Computer,Mobile,Mouse,Keyboard,Processor,Ram,charger,Light,Chair,Pen,Marker</t>
+  </si>
+  <si>
+    <t>Primary cells,Electric accumulators,Vacuum cleaners,Portable electric lamps,ISDN System,Microphones,Sound recording,Video recording,Chair,Pen,Marker</t>
+  </si>
+  <si>
+    <t>Monitor,Carbon electrodes,Diodes, transistors,semi-conductor,photosensitive semi-conductor,light-emitting diodes,Thermionic,Boards,consoles,desks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29AAAGM0289C1ZF
+</t>
   </si>
 </sst>
 </file>
@@ -850,39 +827,39 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -913,39 +890,39 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -956,95 +933,81 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1023,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,42 +1038,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1086,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,54 +1103,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1215,42 +1178,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1226,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,85 +1241,148 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1380,42 +1406,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1449,78 +1475,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1575,42 +1601,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1637,42 +1663,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1711,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,48 +1727,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1768,12 +1794,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1797,18 +1823,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1847,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,18 +1858,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1867,18 +1893,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1890,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,49 +1927,61 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1966,12 +2004,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1996,24 +2034,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2099,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,66 +2117,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2151,26 +2189,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2178,164 +2214,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -2343,163 +2222,216 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="58.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2509,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,60 +2455,46 @@
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6870" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6870" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -311,9 +311,6 @@
     <t>FilePath</t>
   </si>
   <si>
-    <t>E:\sample.pdf</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   <si>
     <t xml:space="preserve">29AAAGM0289C1ZF
 </t>
+  </si>
+  <si>
+    <t>/EXPSample.pdf</t>
   </si>
 </sst>
 </file>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,10 +983,10 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -998,7 +998,7 @@
         <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -1144,7 +1144,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>53</v>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
         <v>32</v>
@@ -1344,25 +1344,25 @@
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>83</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1765,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>87</v>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1858,18 +1858,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
@@ -1969,19 +1969,19 @@
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2037,7 @@
         <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>32</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -2164,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -2279,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2414,7 +2414,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6870" firstSheet="14" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6870" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </t>
   </si>
   <si>
-    <t>/EXPSample.pdf</t>
+    <t>/sample files/EXPSsample.pdf</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1812,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6870" firstSheet="13" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6750" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
   <si>
     <t>username</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Test@123</t>
-  </si>
-  <si>
-    <t>gopi@mailinator.com</t>
   </si>
   <si>
     <t>Price</t>
@@ -410,7 +407,13 @@
 </t>
   </si>
   <si>
-    <t>/sample files/EXPSsample.pdf</t>
+    <t>gopi@mailinator.com</t>
+  </si>
+  <si>
+    <t>E:\EXPSample.pdf</t>
+  </si>
+  <si>
+    <t>Marketing Expense, Payroll,Rent</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -790,7 +797,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -824,42 +831,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -887,42 +894,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -954,60 +961,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1038,42 +1045,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1093,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,54 +1110,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1178,42 +1185,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1241,42 +1248,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1309,72 +1316,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1406,42 +1413,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1461,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,78 +1482,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1569,12 +1576,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1601,42 +1608,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1663,42 +1670,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1727,48 +1734,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1791,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,12 +1801,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1823,15 +1830,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -1858,15 +1865,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -1877,47 +1919,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,54 +1941,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2004,12 +2011,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2034,24 +2041,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2075,18 +2082,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2117,66 +2124,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2199,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,36 +2215,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2252,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,29 +2272,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,36 +2322,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2373,65 +2382,65 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2459,43 +2468,43 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,45 +4,46 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6750" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="1425" windowWidth="14805" windowHeight="6690" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Invoice" sheetId="6" r:id="rId2"/>
     <sheet name="Discount" sheetId="5" r:id="rId3"/>
-    <sheet name="EXP_1" sheetId="8" r:id="rId4"/>
-    <sheet name="EXP_2" sheetId="7" r:id="rId5"/>
-    <sheet name="EXP_3" sheetId="9" r:id="rId6"/>
-    <sheet name="EXP_4" sheetId="10" r:id="rId7"/>
-    <sheet name="EXP_5" sheetId="11" r:id="rId8"/>
-    <sheet name="EXP_6" sheetId="12" r:id="rId9"/>
-    <sheet name="EXP_7" sheetId="13" r:id="rId10"/>
-    <sheet name="EXP_8" sheetId="15" r:id="rId11"/>
-    <sheet name="EXP_9" sheetId="16" r:id="rId12"/>
-    <sheet name="EXP_10" sheetId="18" r:id="rId13"/>
-    <sheet name="EXP_11" sheetId="19" r:id="rId14"/>
-    <sheet name="EXP_12" sheetId="20" r:id="rId15"/>
-    <sheet name="EXP_13" sheetId="21" r:id="rId16"/>
-    <sheet name="EXP_14" sheetId="22" r:id="rId17"/>
-    <sheet name="EXP_15" sheetId="23" r:id="rId18"/>
-    <sheet name="EXP_16" sheetId="24" r:id="rId19"/>
-    <sheet name="EXP_17" sheetId="25" r:id="rId20"/>
-    <sheet name="EXP_18" sheetId="26" r:id="rId21"/>
-    <sheet name="EXP_19" sheetId="27" r:id="rId22"/>
-    <sheet name="EXP_20" sheetId="28" r:id="rId23"/>
-    <sheet name="EXP_21" sheetId="29" r:id="rId24"/>
-    <sheet name="EXP_22" sheetId="30" r:id="rId25"/>
-    <sheet name="EXP_23" sheetId="31" r:id="rId26"/>
-    <sheet name="EXP_24" sheetId="32" r:id="rId27"/>
-    <sheet name="EXP_25" sheetId="33" r:id="rId28"/>
-    <sheet name="EXP_26" sheetId="34" r:id="rId29"/>
+    <sheet name="EXP_Init" sheetId="35" r:id="rId4"/>
+    <sheet name="EXP_1" sheetId="8" r:id="rId5"/>
+    <sheet name="EXP_2" sheetId="7" r:id="rId6"/>
+    <sheet name="EXP_3" sheetId="9" r:id="rId7"/>
+    <sheet name="EXP_4" sheetId="10" r:id="rId8"/>
+    <sheet name="EXP_5" sheetId="11" r:id="rId9"/>
+    <sheet name="EXP_6" sheetId="12" r:id="rId10"/>
+    <sheet name="EXP_7" sheetId="13" r:id="rId11"/>
+    <sheet name="EXP_8" sheetId="15" r:id="rId12"/>
+    <sheet name="EXP_9" sheetId="16" r:id="rId13"/>
+    <sheet name="EXP_10" sheetId="18" r:id="rId14"/>
+    <sheet name="EXP_11" sheetId="19" r:id="rId15"/>
+    <sheet name="EXP_12" sheetId="20" r:id="rId16"/>
+    <sheet name="EXP_13" sheetId="21" r:id="rId17"/>
+    <sheet name="EXP_14" sheetId="22" r:id="rId18"/>
+    <sheet name="EXP_15" sheetId="23" r:id="rId19"/>
+    <sheet name="EXP_16" sheetId="24" r:id="rId20"/>
+    <sheet name="EXP_17" sheetId="25" r:id="rId21"/>
+    <sheet name="EXP_18" sheetId="26" r:id="rId22"/>
+    <sheet name="EXP_19" sheetId="27" r:id="rId23"/>
+    <sheet name="EXP_20" sheetId="28" r:id="rId24"/>
+    <sheet name="EXP_21" sheetId="29" r:id="rId25"/>
+    <sheet name="EXP_22" sheetId="30" r:id="rId26"/>
+    <sheet name="EXP_23" sheetId="31" r:id="rId27"/>
+    <sheet name="EXP_24" sheetId="32" r:id="rId28"/>
+    <sheet name="EXP_25" sheetId="33" r:id="rId29"/>
+    <sheet name="EXP_26" sheetId="34" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="128">
   <si>
     <t>username</t>
   </si>
@@ -86,18 +87,12 @@
     <t>ITEM NAME</t>
   </si>
   <si>
-    <t>Gopi</t>
-  </si>
-  <si>
     <t>Marketing Expense</t>
   </si>
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Ballpens</t>
-  </si>
-  <si>
     <t>Net 7</t>
   </si>
   <si>
@@ -176,9 +171,6 @@
     <t>Bank Transfer</t>
   </si>
   <si>
-    <t>Ballpen</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -206,18 +198,12 @@
     <t xml:space="preserve">Payment Terms </t>
   </si>
   <si>
-    <t>Wrist Watch</t>
-  </si>
-  <si>
     <t>Inout Service</t>
   </si>
   <si>
     <t>Operation Expense</t>
   </si>
   <si>
-    <t>Non-Business Purpose</t>
-  </si>
-  <si>
     <t>New Item Name</t>
   </si>
   <si>
@@ -263,9 +249,6 @@
     <t>23456</t>
   </si>
   <si>
-    <t>Tylor Swift</t>
-  </si>
-  <si>
     <t>SBIN0054490</t>
   </si>
   <si>
@@ -336,9 +319,6 @@
   </si>
   <si>
     <t>Camera</t>
-  </si>
-  <si>
-    <t>Test Vendor Name08-11</t>
   </si>
   <si>
     <t>Payment to /Vendor</t>
@@ -407,13 +387,49 @@
 </t>
   </si>
   <si>
-    <t>gopi@mailinator.com</t>
-  </si>
-  <si>
-    <t>E:\EXPSample.pdf</t>
-  </si>
-  <si>
     <t>Marketing Expense, Payroll,Rent</t>
+  </si>
+  <si>
+    <t>EXPSample.pdf</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>purchase price</t>
+  </si>
+  <si>
+    <t>Test Vendor</t>
+  </si>
+  <si>
+    <t>testvendor@gmail.com</t>
+  </si>
+  <si>
+    <t>11223344556</t>
+  </si>
+  <si>
+    <t>YXZ0000123</t>
+  </si>
+  <si>
+    <t>12AAAGM0289C1ZQ</t>
+  </si>
+  <si>
+    <t>water bottle</t>
+  </si>
+  <si>
+    <t>This is test item</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>testing@numberz.in</t>
+  </si>
+  <si>
+    <t>Non-Business Purpose (T1)</t>
   </si>
 </sst>
 </file>
@@ -797,7 +813,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -817,11 +833,75 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -837,36 +917,36 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -875,12 +955,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,36 +980,36 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -938,12 +1018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,22 +1041,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -985,36 +1065,36 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1025,12 +1105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,10 +1125,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1060,35 +1140,35 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1110,10 +1190,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1125,52 +1205,52 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,10 +1265,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1200,40 +1280,40 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,10 +1328,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1263,40 +1343,40 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,72 +1396,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1393,12 +1473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,55 +1493,83 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,119 +1590,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,59 +1684,60 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,59 +1747,60 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,48 +1816,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1801,25 +1883,25 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,26 +1912,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1865,26 +1947,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1900,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1908,23 +1990,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,59 +2026,59 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2011,25 +2093,60 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,72 +2158,138 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,22 +2307,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -2148,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -2156,34 +2339,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2194,12 +2377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,19 +2415,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2255,12 +2438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,43 +2455,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -2334,37 +2517,37 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2565,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -2394,116 +2577,53 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/Expense_data.xlsx
+++ b/data/Expense_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1425" windowWidth="14805" windowHeight="6690" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="1425" windowWidth="14805" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>testing@numberz.in</t>
-  </si>
-  <si>
     <t>Non-Business Purpose (T1)</t>
+  </si>
+  <si>
+    <t>madhan+99@numberz.in</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +813,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -959,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1009,7 +1009,7 @@
         <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
